--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2506.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2506.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.972277512849585</v>
+        <v>1.615385890007019</v>
       </c>
       <c r="B1">
-        <v>4.901689851403099</v>
+        <v>2.831643342971802</v>
       </c>
       <c r="C1">
-        <v>2.694548176788607</v>
+        <v>3.360304832458496</v>
       </c>
       <c r="D1">
-        <v>2.513650096144977</v>
+        <v>3.756871223449707</v>
       </c>
       <c r="E1">
-        <v>3.258700804907891</v>
+        <v>1.042465329170227</v>
       </c>
     </row>
   </sheetData>
